--- a/potencia/pruebaJuanJo/tablaDeVerdad.xlsx
+++ b/potencia/pruebaJuanJo/tablaDeVerdad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoséSandoval\Desktop\P2_ORGA_G3\potencia\pruebaJuanJo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B7FD1FD-3A98-4FAA-8299-55755EB87D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE62AB7-D0B5-4BCD-AF08-6D395384E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71D0688D-8E99-423A-B171-759A382879AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{71D0688D-8E99-423A-B171-759A382879AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>PONDERADO DECIMAL</t>
   </si>
@@ -233,13 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,8 +242,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,6 +252,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC279F6-1F79-4273-ACE2-F7BA4922130C}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,64 +612,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -936,6 +936,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
